--- a/data/trans_dic/P21B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,24; 85,46</t>
+          <t>58,4; 86,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,54; 74,33</t>
+          <t>52,37; 74,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,53; 73,05</t>
+          <t>49,12; 70,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,23; 77,86</t>
+          <t>53,84; 78,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,97; 75,95</t>
+          <t>57,5; 75,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,12; 65,37</t>
+          <t>50,26; 65,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60,12; 78,78</t>
+          <t>59,16; 78,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,55; 72,92</t>
+          <t>59,2; 72,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,19; 66,0</t>
+          <t>52,87; 65,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,27; 84,59</t>
+          <t>65,07; 84,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,35; 70,24</t>
+          <t>53,83; 70,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,91; 74,96</t>
+          <t>53,95; 74,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,08; 92,59</t>
+          <t>73,99; 92,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,36; 76,73</t>
+          <t>60,43; 77,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,34; 68,64</t>
+          <t>54,65; 68,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,79; 70,06</t>
+          <t>51,64; 69,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,39; 84,88</t>
+          <t>71,03; 84,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,67; 77,36</t>
+          <t>64,61; 77,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56,53; 67,34</t>
+          <t>56,4; 67,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,21; 69,78</t>
+          <t>55,49; 69,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,55; 86,77</t>
+          <t>75,32; 86,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,34; 83,11</t>
+          <t>62,17; 83,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,43; 76,3</t>
+          <t>55,28; 76,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,27; 86,59</t>
+          <t>56,23; 84,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,93; 79,79</t>
+          <t>57,89; 79,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,27; 71,93</t>
+          <t>51,0; 71,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,09; 78,87</t>
+          <t>59,03; 78,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,91; 86,93</t>
+          <t>61,65; 86,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,27; 84,79</t>
+          <t>69,92; 83,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,93; 74,66</t>
+          <t>59,12; 74,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,61; 74,81</t>
+          <t>59,78; 74,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63,7; 82,72</t>
+          <t>63,34; 83,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>68,03; 80,22</t>
+          <t>69,01; 80,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,5; 81,46</t>
+          <t>61,85; 81,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,95; 63,87</t>
+          <t>49,17; 64,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,98; 75,89</t>
+          <t>56,43; 76,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,96; 87,56</t>
+          <t>59,75; 87,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,12; 79,19</t>
+          <t>61,48; 78,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,59; 74,45</t>
+          <t>61,85; 74,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,05; 68,25</t>
+          <t>48,94; 67,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>73,19; 88,75</t>
+          <t>73,64; 88,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,94; 76,89</t>
+          <t>64,48; 77,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,71; 67,63</t>
+          <t>58,24; 67,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,39; 68,88</t>
+          <t>55,35; 69,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,58; 85,9</t>
+          <t>72,06; 85,99</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,83; 76,0</t>
+          <t>44,11; 77,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,26; 65,04</t>
+          <t>32,5; 64,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,48; 70,36</t>
+          <t>32,55; 69,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,92; 95,8</t>
+          <t>62,88; 94,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,19; 72,67</t>
+          <t>39,86; 72,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,25; 63,65</t>
+          <t>40,13; 62,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 58,64</t>
+          <t>21,1; 59,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,19; 96,41</t>
+          <t>70,26; 96,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,54; 70,09</t>
+          <t>47,42; 70,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,56; 60,43</t>
+          <t>41,27; 59,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 57,84</t>
+          <t>32,08; 58,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>71,34; 93,37</t>
+          <t>72,71; 93,45</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,97; 82,31</t>
+          <t>59,09; 82,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>64,14; 84,89</t>
+          <t>61,59; 84,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,33; 89,24</t>
+          <t>66,52; 88,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>70,02; 88,04</t>
+          <t>69,44; 87,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,49; 83,08</t>
+          <t>65,98; 83,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,69; 79,18</t>
+          <t>59,08; 78,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,66; 94,81</t>
+          <t>79,32; 94,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,21; 76,66</t>
+          <t>59,29; 76,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,98; 81,52</t>
+          <t>67,35; 81,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,17; 78,26</t>
+          <t>64,03; 78,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>77,22; 90,01</t>
+          <t>77,97; 90,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,42; 80,48</t>
+          <t>67,26; 79,89</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>67,34; 84,17</t>
+          <t>67,97; 84,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,2; 71,8</t>
+          <t>54,8; 71,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,43; 94,39</t>
+          <t>77,87; 94,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>62,87; 78,32</t>
+          <t>62,46; 78,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>68,79; 82,53</t>
+          <t>68,93; 81,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,65; 71,43</t>
+          <t>57,62; 72,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,42; 83,09</t>
+          <t>67,13; 83,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,02; 92,22</t>
+          <t>69,15; 92,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>70,46; 81,22</t>
+          <t>70,97; 81,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,78; 69,7</t>
+          <t>59,15; 69,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,98; 86,16</t>
+          <t>74,19; 86,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>69,38; 87,69</t>
+          <t>69,41; 88,54</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,52; 67,28</t>
+          <t>47,35; 67,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>52,91; 77,73</t>
+          <t>51,52; 77,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,48; 61,47</t>
+          <t>43,17; 64,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,19; 75,25</t>
+          <t>55,93; 76,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>55,57; 71,16</t>
+          <t>55,23; 71,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>63,62; 81,53</t>
+          <t>62,67; 81,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,54; 60,94</t>
+          <t>42,05; 59,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,25; 74,78</t>
+          <t>58,49; 74,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>54,74; 67,51</t>
+          <t>56,01; 68,15</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>62,28; 77,16</t>
+          <t>62,22; 77,74</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>44,64; 57,91</t>
+          <t>45,17; 58,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>60,14; 73,06</t>
+          <t>60,02; 72,59</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>66,95; 74,77</t>
+          <t>66,91; 74,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>58,54; 66,19</t>
+          <t>58,54; 66,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>62,59; 71,02</t>
+          <t>62,95; 71,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>68,31; 75,96</t>
+          <t>68,47; 75,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>65,36; 71,86</t>
+          <t>65,79; 72,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,34; 68,81</t>
+          <t>62,71; 69,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>61,55; 68,86</t>
+          <t>61,56; 68,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>70,65; 81,73</t>
+          <t>70,74; 82,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>67,42; 72,21</t>
+          <t>67,05; 72,06</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>61,82; 66,63</t>
+          <t>62,02; 66,79</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63,46; 68,91</t>
+          <t>63,4; 68,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>70,85; 79,72</t>
+          <t>71,09; 79,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,4; 86,59</t>
+          <t>58,68; 85,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,37; 74,34</t>
+          <t>52,33; 74,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,84; 78,62</t>
+          <t>54,63; 78,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,5; 75,34</t>
+          <t>58,28; 76,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,16; 78,03</t>
+          <t>59,78; 78,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,2; 72,67</t>
+          <t>58,49; 72,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,07; 84,67</t>
+          <t>63,51; 84,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,83; 70,88</t>
+          <t>52,84; 70,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,95; 74,49</t>
+          <t>52,82; 75,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,43; 77,77</t>
+          <t>61,11; 77,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,65; 68,78</t>
+          <t>54,51; 68,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,64; 69,98</t>
+          <t>52,28; 71,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,61; 77,45</t>
+          <t>64,66; 77,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56,4; 67,12</t>
+          <t>56,35; 67,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,49; 69,51</t>
+          <t>55,57; 69,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,17; 83,28</t>
+          <t>62,4; 84,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,28; 76,42</t>
+          <t>55,67; 76,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,23; 84,71</t>
+          <t>55,99; 85,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,0; 71,54</t>
+          <t>50,91; 71,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,03; 78,5</t>
+          <t>57,77; 77,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,65; 86,58</t>
+          <t>62,91; 86,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,12; 74,19</t>
+          <t>57,59; 73,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59,78; 74,81</t>
+          <t>60,37; 74,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63,34; 83,18</t>
+          <t>64,61; 82,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,85; 81,07</t>
+          <t>61,38; 81,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,17; 64,7</t>
+          <t>49,12; 64,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,43; 76,09</t>
+          <t>55,78; 76,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,48; 78,02</t>
+          <t>60,98; 78,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,85; 74,6</t>
+          <t>61,11; 74,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,94; 67,92</t>
+          <t>49,25; 67,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,48; 77,72</t>
+          <t>64,05; 77,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,24; 67,76</t>
+          <t>58,42; 68,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,35; 69,0</t>
+          <t>54,71; 68,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,11; 77,22</t>
+          <t>44,8; 76,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 64,6</t>
+          <t>31,81; 64,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,55; 69,8</t>
+          <t>31,65; 70,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,86; 72,02</t>
+          <t>41,16; 71,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,13; 62,57</t>
+          <t>39,17; 61,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,1; 59,53</t>
+          <t>21,37; 57,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,42; 70,25</t>
+          <t>46,06; 70,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,27; 59,31</t>
+          <t>40,94; 59,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,08; 58,53</t>
+          <t>33,25; 61,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,09; 82,89</t>
+          <t>59,08; 83,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>61,59; 84,59</t>
+          <t>62,35; 84,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,52; 88,16</t>
+          <t>66,93; 89,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,98; 83,78</t>
+          <t>66,4; 84,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,08; 78,75</t>
+          <t>59,31; 77,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,32; 94,03</t>
+          <t>79,72; 94,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,35; 81,35</t>
+          <t>67,21; 80,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,03; 78,1</t>
+          <t>64,3; 77,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>77,97; 90,03</t>
+          <t>77,17; 90,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>67,97; 84,85</t>
+          <t>67,78; 84,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>54,8; 71,97</t>
+          <t>54,88; 71,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,87; 94,41</t>
+          <t>77,8; 94,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>68,93; 81,3</t>
+          <t>68,72; 81,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,62; 72,42</t>
+          <t>57,61; 71,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,13; 83,74</t>
+          <t>66,53; 82,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>70,97; 81,34</t>
+          <t>70,76; 80,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59,15; 69,33</t>
+          <t>58,84; 69,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>74,19; 86,15</t>
+          <t>73,24; 85,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,35; 67,88</t>
+          <t>47,6; 67,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,52; 77,36</t>
+          <t>52,33; 77,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,17; 64,39</t>
+          <t>43,58; 63,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>55,23; 71,66</t>
+          <t>54,4; 71,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,67; 81,75</t>
+          <t>62,22; 81,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,05; 59,86</t>
+          <t>41,81; 58,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>56,01; 68,15</t>
+          <t>55,04; 67,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>62,22; 77,74</t>
+          <t>62,56; 77,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>45,17; 58,89</t>
+          <t>45,27; 57,98</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>66,91; 74,49</t>
+          <t>66,42; 74,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>58,54; 66,05</t>
+          <t>58,34; 65,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>62,95; 71,3</t>
+          <t>63,05; 71,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>65,79; 72,15</t>
+          <t>65,68; 72,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,71; 69,11</t>
+          <t>62,71; 68,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>61,56; 68,56</t>
+          <t>61,68; 68,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>67,05; 72,06</t>
+          <t>67,17; 72,13</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62,02; 66,79</t>
+          <t>61,93; 67,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63,4; 68,91</t>
+          <t>63,24; 68,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
